--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Paola Pinzon.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Paola Pinzon.xlsx
@@ -50,6 +50,9 @@
     <t xml:space="preserve">Gabriela Feijoo</t>
   </si>
   <si>
+    <t xml:space="preserve">Spa Manicure Tradicional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spa Pedicure Tradicional</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ajuste de Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Tradicional</t>
   </si>
   <si>
     <t xml:space="preserve">27/11/2024 13:53</t>
@@ -651,58 +651,58 @@
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="F3" t="n">
-        <v>15300</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>47000</v>
+        <v>34000</v>
       </c>
       <c r="F4" t="n">
-        <v>21150</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>14000</v>
+        <v>47000</v>
       </c>
       <c r="F5" t="n">
-        <v>6300</v>
+        <v>21150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -711,18 +711,18 @@
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>38000</v>
+        <v>14000</v>
       </c>
       <c r="F6" t="n">
-        <v>17100</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -731,38 +731,38 @@
         <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>199000</v>
+        <v>38000</v>
       </c>
       <c r="F7" t="n">
-        <v>89550</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>32000</v>
+        <v>199000</v>
       </c>
       <c r="F8" t="n">
-        <v>14400</v>
+        <v>89550</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -778,103 +778,103 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>34000</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>-8840</v>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>34000</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-8840</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>28000</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F12" s="1" t="n">
         <v>-7280</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>199000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>89550</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>60000</v>
+        <v>199000</v>
       </c>
       <c r="F13" t="n">
-        <v>27000</v>
+        <v>89550</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F14" t="n">
-        <v>13500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="15">
@@ -885,16 +885,16 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="F15" t="n">
-        <v>17100</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="16">
@@ -905,56 +905,56 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="F16" t="n">
-        <v>27000</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>12000</v>
+        <v>60000</v>
       </c>
       <c r="F17" t="n">
-        <v>5860.8</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F18" t="n">
-        <v>6750</v>
+        <v>5860.8</v>
       </c>
     </row>
     <row r="19">
@@ -965,16 +965,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="F19" t="n">
-        <v>14400</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="20">
@@ -985,16 +985,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F20" t="n">
-        <v>17100</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="21">
@@ -1005,36 +1005,36 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="F21" t="n">
-        <v>27000</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="F22" t="n">
-        <v>14400</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="23">
@@ -1042,79 +1042,79 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>9600</v>
+        <v>32000</v>
       </c>
       <c r="F23" t="n">
-        <v>4320</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="n">
-        <v>32000</v>
+        <v>9600</v>
       </c>
       <c r="F24" t="n">
-        <v>14400</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="F25" t="n">
-        <v>27000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="F26" t="n">
-        <v>6750</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="27">
@@ -1125,16 +1125,16 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="F27" t="n">
-        <v>33750</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="28">
@@ -1145,56 +1145,56 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>33750</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>14400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F30" t="n">
-        <v>17100</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="31">
@@ -1205,47 +1205,47 @@
         <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="F31" t="n">
-        <v>14400</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="F32" t="n">
-        <v>12600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1291,30 +1291,30 @@
         <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="F35" t="n">
-        <v>15300</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>199000</v>
+        <v>34000</v>
       </c>
       <c r="F36" t="n">
-        <v>89550</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="37">
@@ -1325,16 +1325,16 @@
         <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>32000</v>
+        <v>199000</v>
       </c>
       <c r="F37" t="n">
-        <v>14400</v>
+        <v>89550</v>
       </c>
     </row>
     <row r="38">
@@ -1345,92 +1345,96 @@
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>67000</v>
+        <v>32000</v>
       </c>
       <c r="F38" t="n">
-        <v>30150</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
       </c>
       <c r="E39" t="n">
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="F39" t="n">
-        <v>19250</v>
+        <v>30150</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="F40" t="n">
-        <v>8791.2</v>
+        <v>19250</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>18000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8791.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
         <v>72</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="n">
         <v>32000</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F42" t="n">
         <v>14400</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="n">
-        <v>-60000</v>
       </c>
     </row>
     <row r="43">
@@ -1451,18 +1455,18 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="n">
-        <v>-50000</v>
+        <v>-60000</v>
       </c>
     </row>
     <row r="45">
@@ -1471,7 +1475,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
@@ -1487,29 +1491,45 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="n">
-        <v>-7500</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="n">
+        <v>-7500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="n">
         <v>-17000</v>
       </c>
     </row>
